--- a/output/07-overall-report.xlsx
+++ b/output/07-overall-report.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -411,22 +412,22 @@
         <v>82</v>
       </c>
       <c r="C2">
-        <v>742</v>
+        <v>845</v>
       </c>
       <c r="D2">
-        <v>0.009171983739152638</v>
+        <v>0.008465581226394514</v>
       </c>
       <c r="E2">
-        <v>0.05189424259760637</v>
+        <v>0.04911380278375889</v>
       </c>
       <c r="F2">
-        <v>96.90032659607554</v>
+        <v>97.69303099736912</v>
       </c>
       <c r="G2">
-        <v>82.34615691549733</v>
+        <v>83.32976012571358</v>
       </c>
       <c r="H2">
-        <v>14.55416968057821</v>
+        <v>14.36327087165555</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +440,22 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="D3">
-        <v>0.00332076114943789</v>
+        <v>0.00228031113033297</v>
       </c>
       <c r="E3">
-        <v>0.05679459889392822</v>
+        <v>0.05337393713445488</v>
       </c>
       <c r="F3">
-        <v>95.11298609168959</v>
+        <v>94.99507635788339</v>
       </c>
       <c r="G3">
-        <v>89.85896268082651</v>
+        <v>91.10286081819807</v>
       </c>
       <c r="H3">
-        <v>5.25402341086309</v>
+        <v>3.892215539685318</v>
       </c>
     </row>
   </sheetData>
@@ -539,25 +540,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1352685092780511</v>
+        <v>0.123561316058928</v>
       </c>
       <c r="E2">
-        <v>0.01869941599991594</v>
+        <v>0.01794416962493207</v>
       </c>
       <c r="F2">
-        <v>7.278447374944875</v>
+        <v>6.921243081102118</v>
       </c>
       <c r="G2">
-        <v>7.115754510839375e-10</v>
+        <v>2.82792364152685e-09</v>
       </c>
       <c r="H2">
-        <v>0.09840288778506633</v>
+        <v>0.08810339367159173</v>
       </c>
       <c r="I2">
-        <v>0.1717633646527836</v>
+        <v>0.1587065056840423</v>
       </c>
       <c r="J2">
-        <v>61.93724028059422</v>
+        <v>62.55631858650582</v>
       </c>
     </row>
     <row r="3">
@@ -577,25 +578,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06640615398274864</v>
+        <v>0.05170312977260087</v>
       </c>
       <c r="E3">
-        <v>0.03321960932822069</v>
+        <v>0.02858873277905712</v>
       </c>
       <c r="F3">
-        <v>2.001950851591924</v>
+        <v>1.810128324999694</v>
       </c>
       <c r="G3">
-        <v>0.0626956761675751</v>
+        <v>0.08745066124312022</v>
       </c>
       <c r="H3">
-        <v>-0.003968356039764044</v>
+        <v>-0.008428338158060178</v>
       </c>
       <c r="I3">
-        <v>0.1361261328376649</v>
+        <v>0.1114620227164346</v>
       </c>
       <c r="J3">
-        <v>15.86159007909372</v>
+        <v>17.532068949639</v>
       </c>
     </row>
     <row r="4">
@@ -615,25 +616,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.3677392952498064</v>
+        <v>-0.3831787543754084</v>
       </c>
       <c r="E4">
-        <v>0.1341168524621662</v>
+        <v>0.1352597293156526</v>
       </c>
       <c r="F4">
-        <v>-2.876643298744822</v>
+        <v>-2.985220774879257</v>
       </c>
       <c r="G4">
-        <v>0.169384574118603</v>
+        <v>0.1639332395316631</v>
       </c>
       <c r="H4">
-        <v>-0.8946245413267926</v>
+        <v>-0.9031836872193202</v>
       </c>
       <c r="I4">
-        <v>0.5869566384341514</v>
+        <v>0.5926063569277985</v>
       </c>
       <c r="J4">
-        <v>1.26189892121335</v>
+        <v>1.250262293061353</v>
       </c>
     </row>
     <row r="5">
@@ -653,25 +654,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.06084314401926466</v>
+        <v>0.0547909462179006</v>
       </c>
       <c r="E5">
-        <v>0.02100812635203647</v>
+        <v>0.0194096624167636</v>
       </c>
       <c r="F5">
-        <v>2.899753570167811</v>
+        <v>2.825699507657331</v>
       </c>
       <c r="G5">
-        <v>0.006340904509299269</v>
+        <v>0.00759582174241282</v>
       </c>
       <c r="H5">
-        <v>0.01830324703617696</v>
+        <v>0.01550259097373886</v>
       </c>
       <c r="I5">
-        <v>0.1031631565321575</v>
+        <v>0.09391037376213027</v>
       </c>
       <c r="J5">
-        <v>35.83909443712767</v>
+        <v>36.60503052111265</v>
       </c>
     </row>
     <row r="6">
@@ -691,25 +692,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.009751498909264524</v>
+        <v>0.01203939069527691</v>
       </c>
       <c r="E6">
-        <v>0.02353806355713892</v>
+        <v>0.01925304939193722</v>
       </c>
       <c r="F6">
-        <v>0.4142995025425744</v>
+        <v>0.6253540512814997</v>
       </c>
       <c r="G6">
-        <v>0.68848442033885</v>
+        <v>0.5456292960933846</v>
       </c>
       <c r="H6">
-        <v>-0.04357836585706627</v>
+        <v>-0.03080011641711508</v>
       </c>
       <c r="I6">
-        <v>0.06302594806507419</v>
+        <v>0.05483474700839647</v>
       </c>
       <c r="J6">
-        <v>8.878811585998895</v>
+        <v>10.08442961035948</v>
       </c>
     </row>
   </sheetData>
@@ -774,19 +775,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.925313573463308</v>
+        <v>2.289915326790733</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>16.99889710041781</v>
+        <v>19.30416522372749</v>
       </c>
       <c r="F2">
-        <v>0.07108817709496411</v>
+        <v>0.03344760158791888</v>
       </c>
       <c r="G2">
-        <v>0.1395837171087038</v>
+        <v>0.1003428047637566</v>
       </c>
     </row>
     <row r="3">
@@ -801,19 +802,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>4.048453506326597</v>
+        <v>4.050852963263859</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.081253264643978</v>
+        <v>1.071200760447931</v>
       </c>
       <c r="F3">
-        <v>0.1395837171087038</v>
+        <v>0.1411940376615908</v>
       </c>
       <c r="G3">
-        <v>0.1395837171087038</v>
+        <v>0.1411940376615908</v>
       </c>
     </row>
     <row r="4">
@@ -828,19 +829,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>2.935903659829992</v>
+        <v>3.001997097542414</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.854450422300068</v>
+        <v>1.765200884433161</v>
       </c>
       <c r="F4">
-        <v>0.1081942447293813</v>
+        <v>0.1106401498553663</v>
       </c>
       <c r="G4">
-        <v>0.1395837171087038</v>
+        <v>0.1411940376615908</v>
       </c>
     </row>
     <row r="5">
@@ -855,19 +856,144 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.83974491302581</v>
+        <v>1.83394656060511</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10.62286901774677</v>
+        <v>12.9304890386464</v>
       </c>
       <c r="F5">
-        <v>0.09388841662383512</v>
+        <v>0.08977188923154675</v>
       </c>
       <c r="G5">
-        <v>0.09388841662383512</v>
+        <v>0.08977188923154675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>681</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>159</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>358</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
